--- a/DATA/IsoData/CLBJIsoData.xlsx
+++ b/DATA/IsoData/CLBJIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">f4f1fe88-2575-43db-825a-ecbc9e417c98</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26dea4c2-ed59-4cce-b470-f1f39c9c8bbb</t>
   </si>
   <si>
     <t xml:space="preserve">CLBJ.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T171249Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c3003895-2d16-482f-bea0-a5fdaa00fb35</t>
+    <t xml:space="preserve">20210112T145435Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3b3adf73-7e20-420d-b354-8b40776b0a81</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CLBJ.20190104.1039</t>
@@ -101,10 +107,10 @@
     <t xml:space="preserve">A00000052752</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T142947Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2872f446-eeaf-4fa2-9a02-455f3af23d51</t>
+    <t xml:space="preserve">20210112T153322Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79a7e33a-da88-458d-94a2-e45d699b9aac</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CLBJ.20190116.1512</t>
@@ -116,7 +122,7 @@
     <t xml:space="preserve">A00000052753</t>
   </si>
   <si>
-    <t xml:space="preserve">0a293053-0e5a-445c-9a86-d3fd422f334e</t>
+    <t xml:space="preserve">4c7dcca8-aa70-4878-a6a6-145f09ec048c</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CLBJ.20190131.1311</t>
@@ -128,7 +134,7 @@
     <t xml:space="preserve">A00000052874</t>
   </si>
   <si>
-    <t xml:space="preserve">cfc19ceb-6b4e-46a7-8908-78204ed2d4e5</t>
+    <t xml:space="preserve">53ff85a8-53bc-44ca-b186-a798a2c32eb7</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CLBJ.20190411.0939</t>
@@ -140,10 +146,10 @@
     <t xml:space="preserve">A00000053150</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T142553Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8df0fc89-22ac-467f-ad80-10098d7ea1b6</t>
+    <t xml:space="preserve">20210112T151903Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a7a32433-77ad-45e3-b662-b6e781c01635</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CLBJ.20190425.1231</t>
@@ -155,7 +161,7 @@
     <t xml:space="preserve">A00000103899</t>
   </si>
   <si>
-    <t xml:space="preserve">b5cc5bd2-367a-413e-8d3f-d3bcd1dfb79d</t>
+    <t xml:space="preserve">caccd8fd-5701-4866-afbb-e47843ffc341</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CLBJ.20190509.1333</t>
@@ -167,10 +173,10 @@
     <t xml:space="preserve">A00000104226</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T142623Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25383e84-0911-4d72-a74c-f28b90edd9c2</t>
+    <t xml:space="preserve">20210112T152823Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81c725aa-61cd-4130-8eed-e4852766c776</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CLBJ.20190523.1024</t>
@@ -182,7 +188,7 @@
     <t xml:space="preserve">A00000104339</t>
   </si>
   <si>
-    <t xml:space="preserve">437a357f-30dd-4dff-8542-bc1e9e2dbb73</t>
+    <t xml:space="preserve">6919178f-737c-4131-b69d-06727aaa8fe6</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CLBJ.20190605.0946</t>
@@ -194,10 +200,10 @@
     <t xml:space="preserve">A00000104580</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T142301Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80d03cde-90f2-47bd-a8a9-4f102a5a39fd</t>
+    <t xml:space="preserve">20210112T153317Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fc2cb072-dfa4-4144-bc33-e9d5304a5272</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CLBJ.20190620.1245</t>
@@ -209,7 +215,7 @@
     <t xml:space="preserve">A00000104601</t>
   </si>
   <si>
-    <t xml:space="preserve">067b91b1-9941-43f6-96fa-c8a4bc171f2e</t>
+    <t xml:space="preserve">57ace016-4b3b-450e-97f1-060c37b21285</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CLBJ.20190703.1150</t>
@@ -221,10 +227,10 @@
     <t xml:space="preserve">A00000104796</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T142454Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6b7d7fc0-6b55-46fc-8e0a-9d871b9ba6c6</t>
+    <t xml:space="preserve">20210112T152835Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7829173f-46b5-4d1f-8e8c-640c44dbcf67</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CLBJ.20190718.1000</t>
@@ -236,7 +242,7 @@
     <t xml:space="preserve">A00000104709</t>
   </si>
   <si>
-    <t xml:space="preserve">04d19a3b-5c71-4fdb-9229-bf8e1794c77d</t>
+    <t xml:space="preserve">bdc1c034-2f1c-4869-8313-14d9693687aa</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CLBJ.20190731.1011</t>
@@ -248,7 +254,7 @@
     <t xml:space="preserve">A00000104864</t>
   </si>
   <si>
-    <t xml:space="preserve">67957fd1-ce3c-4bdf-89be-341ccd15308e</t>
+    <t xml:space="preserve">5521cb27-cd5f-4d71-8e9c-9a8655bd95e1</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CLBJ.20190813.0910</t>
@@ -260,10 +266,10 @@
     <t xml:space="preserve">A00000104981</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T142330Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b0eedf64-07c2-4148-9556-c441eee407ec</t>
+    <t xml:space="preserve">20210112T151941Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c3da664-f866-43b1-9c47-5135012d0d6f</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CLBJ.20190829.0921</t>
@@ -275,7 +281,7 @@
     <t xml:space="preserve">A00000105016</t>
   </si>
   <si>
-    <t xml:space="preserve">c8eb626d-f20b-4b9d-bf65-9453df3c6729</t>
+    <t xml:space="preserve">2f592b3e-2fb3-4576-8e13-cba81b551a26</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CLBJ.20190912.0936</t>
@@ -287,10 +293,10 @@
     <t xml:space="preserve">A00000105490</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T142416Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3756e97a-673b-4ebf-8e43-2d0be86ea14b</t>
+    <t xml:space="preserve">20210112T152723Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5f1652e6-af3e-4954-bb3f-4fab27261f36</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CLBJ.20190925.0956</t>
@@ -302,7 +308,7 @@
     <t xml:space="preserve">A00000145070</t>
   </si>
   <si>
-    <t xml:space="preserve">7fba809e-fa6e-46f6-b750-747ec04f4286</t>
+    <t xml:space="preserve">6a4b33e9-4993-4921-a31a-9d005f850bc5</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CLBJ.20191023.0950</t>
@@ -314,10 +320,10 @@
     <t xml:space="preserve">A00000145161</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T171120Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b6a23a05-1b0e-4de2-8690-208b5e968e21</t>
+    <t xml:space="preserve">20210112T145325Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b21f2417-678b-4e0c-9550-2be052ef7d7d</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CLBJ.20191120.0940</t>
@@ -329,10 +335,10 @@
     <t xml:space="preserve">A00000135312</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T171342Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9d6fd760-ae03-433f-b2f2-e741cdef839e</t>
+    <t xml:space="preserve">20210112T145432Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78fb11c2-2df5-424f-a082-33afd3f8a610</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CLBJ.20191205.1032</t>
@@ -344,10 +350,10 @@
     <t xml:space="preserve">A00000135684</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T171323Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d61024b0-7c17-435d-8ca8-122e584132c2</t>
+    <t xml:space="preserve">20210112T145535Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73a1f486-cc47-44d4-9096-92e8110dd725</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.CLBJ.20200102.1150</t>
@@ -359,7 +365,37 @@
     <t xml:space="preserve">A00000135524</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T143034Z</t>
+    <t xml:space="preserve">20210112T152617Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1b61082c-56d0-4335-bc68-471fece7895e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.CLBJ.20200124.1005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.CLBJ.20200124.1005.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000135519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e27eee8b-f28c-4d1c-9607-cea537581001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.CLBJ.20200213.1049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.CLBJ.20200213.1049.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000135697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T152343Z</t>
   </si>
 </sst>
 </file>
@@ -697,7 +733,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -751,23 +787,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43420.7270833333</v>
@@ -788,35 +827,38 @@
         <v>0.107</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43528.7916666667</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43439.8277777778</v>
@@ -837,35 +879,38 @@
         <v>0.245</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43528.7916666667</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43469.7104166667</v>
@@ -886,35 +931,38 @@
         <v>0.116</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43528.7916666667</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43481.8923611111</v>
@@ -935,35 +983,38 @@
         <v>0.196</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43566.75</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43551.7673611111</v>
@@ -984,35 +1035,38 @@
         <v>0.149</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43640.75</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43566.6201388889</v>
@@ -1033,35 +1087,38 @@
         <v>0.494</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43640.75</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43580.7409722222</v>
@@ -1082,35 +1139,38 @@
         <v>0.736</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43640.75</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43594.7979166667</v>
@@ -1131,35 +1191,38 @@
         <v>0.164</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43664.75</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43608.6534722222</v>
@@ -1180,35 +1243,38 @@
         <v>0.227</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43664.75</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43621.6263888889</v>
@@ -1229,35 +1295,38 @@
         <v>0.235</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43664.75</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>43636.75</v>
@@ -1278,35 +1347,38 @@
         <v>0.173</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43664.75</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>43649.7152777778</v>
@@ -1327,35 +1399,38 @@
         <v>0.113</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>43739.75</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>43664.6354166667</v>
@@ -1376,35 +1451,38 @@
         <v>0.233</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>43739.75</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>43677.6451388889</v>
@@ -1425,35 +1503,38 @@
         <v>0.011</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>43739.75</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>43690.5972222222</v>
@@ -1474,35 +1555,38 @@
         <v>0.15</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>43739.75</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P16"/>
       <c r="Q16" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="R16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>43706.6083333333</v>
@@ -1523,35 +1607,38 @@
         <v>0.298</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>43808.7916666667</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P17"/>
       <c r="Q17" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="R17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>43720.6173611111</v>
@@ -1572,35 +1659,38 @@
         <v>0.294</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>43808.7916666667</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P18"/>
       <c r="Q18" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>43747.6486111111</v>
@@ -1621,35 +1711,38 @@
         <v>0.288</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>43808.7916666667</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P19"/>
       <c r="Q19" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>43761.6909722222</v>
@@ -1670,35 +1763,38 @@
         <v>0.169</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>43882.7916666667</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P20"/>
       <c r="Q20" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>43789.65625</v>
@@ -1719,35 +1815,38 @@
         <v>0.073</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>43882.7916666667</v>
       </c>
       <c r="O21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P21"/>
       <c r="Q21" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="R21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>43804.6965277778</v>
@@ -1768,17 +1867,124 @@
         <v>0.2</v>
       </c>
       <c r="M22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>43882.7916666667</v>
       </c>
       <c r="O22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P22"/>
       <c r="Q22" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="R22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>43832.7465277778</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>43854.6701388889</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-4.998</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-23.131</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="M23" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>44022.75</v>
+      </c>
+      <c r="O23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23"/>
+      <c r="Q23" t="s">
+        <v>117</v>
+      </c>
+      <c r="R23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>43854.6805555556</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>43874.7006944444</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-8.279</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-53.181</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>44022.75</v>
+      </c>
+      <c r="O24" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24"/>
+      <c r="Q24" t="s">
+        <v>127</v>
+      </c>
+      <c r="R24" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
